--- a/Tauqeer_AzentioAutomationFramework_FMS/TestData/FMSTestData.xlsx
+++ b/Tauqeer_AzentioAutomationFramework_FMS/TestData/FMSTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6BF9608-BF77-48B6-AFA7-5EC1E0EC69AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16A593A-FF8E-4A15-8EF2-CF6160D0D4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <sheet name="FMSCollateralManagementReport" sheetId="8" r:id="rId13"/>
     <sheet name="CollateralManagement" sheetId="12" r:id="rId14"/>
     <sheet name="IISCharges" sheetId="18" r:id="rId15"/>
-    <sheet name="ApplicationForFinancialFaciliti" sheetId="11" r:id="rId16"/>
-    <sheet name="CorporatePackages" sheetId="15" r:id="rId17"/>
+    <sheet name="AccrualProcess" sheetId="19" r:id="rId16"/>
+    <sheet name="IncidentalCharges" sheetId="20" r:id="rId17"/>
+    <sheet name="IISAdvancePrincipleSettlement" sheetId="21" r:id="rId18"/>
+    <sheet name="ApplicationForFinancialFaciliti" sheetId="11" r:id="rId19"/>
+    <sheet name="CorporatePackages" sheetId="15" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="228">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>IISFMS_User1</t>
+  </si>
+  <si>
+    <t>SANKAR</t>
   </si>
   <si>
     <t>IISFMS_User2</t>
@@ -405,6 +411,129 @@
   </si>
   <si>
     <t>ChargeIns</t>
+  </si>
+  <si>
+    <t>Party Value</t>
+  </si>
+  <si>
+    <t>Category Code</t>
+  </si>
+  <si>
+    <t>Product Class</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>Tenure DD</t>
+  </si>
+  <si>
+    <t>Profit Calculation</t>
+  </si>
+  <si>
+    <t>Profit Recognition</t>
+  </si>
+  <si>
+    <t>Grace Period</t>
+  </si>
+  <si>
+    <t>Grace Period DD</t>
+  </si>
+  <si>
+    <t>Deal Nbr</t>
+  </si>
+  <si>
+    <t>Accruals From</t>
+  </si>
+  <si>
+    <t>Accruals To</t>
+  </si>
+  <si>
+    <t>First Pay After</t>
+  </si>
+  <si>
+    <t>AT_AP_015</t>
+  </si>
+  <si>
+    <t>AT_AP_015_D1</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Diminishing Returns</t>
+  </si>
+  <si>
+    <t>31/01/2010</t>
+  </si>
+  <si>
+    <t>AT_AP_016</t>
+  </si>
+  <si>
+    <t>AT_AP_016_D1</t>
+  </si>
+  <si>
+    <t>AT_AP_017</t>
+  </si>
+  <si>
+    <t>AT_AP_017_D1</t>
+  </si>
+  <si>
+    <t>AT_AP_039</t>
+  </si>
+  <si>
+    <t>AT_AP_039_D1</t>
+  </si>
+  <si>
+    <t>AT_AP_040</t>
+  </si>
+  <si>
+    <t>AT_AP_040_D1</t>
+  </si>
+  <si>
+    <t>AT_AP_027</t>
+  </si>
+  <si>
+    <t>AT_AP_027_D1</t>
+  </si>
+  <si>
+    <t>30/06/2014</t>
+  </si>
+  <si>
+    <t>AT_AP_033</t>
+  </si>
+  <si>
+    <t>AT_AP_033_D1</t>
+  </si>
+  <si>
+    <t>AT_APS_014</t>
+  </si>
+  <si>
+    <t>AT_APS_014_D1</t>
+  </si>
+  <si>
+    <t>Charges Code</t>
+  </si>
+  <si>
+    <t>Charge Allocation DD</t>
+  </si>
+  <si>
+    <t>Next Installment</t>
+  </si>
+  <si>
+    <t>AT_APS_013</t>
+  </si>
+  <si>
+    <t>AT_APS_013_D1</t>
+  </si>
+  <si>
+    <t>settlement Nbr</t>
+  </si>
+  <si>
+    <t>AT_APS_012</t>
+  </si>
+  <si>
+    <t>AT_APS_012_D1</t>
   </si>
   <si>
     <t>TestcaseID</t>
@@ -863,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -926,6 +1055,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1443,49 +1573,49 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="61.5" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="61.5" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="61.5" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="61.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1516,10 +1646,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="12">
         <v>123</v>
@@ -1527,10 +1657,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="12">
         <v>123</v>
@@ -1553,34 +1683,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1588,13 +1718,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -1608,13 +1738,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -1712,10 +1842,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1723,7 +1853,7 @@
         <v>836785</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="13">
         <v>285</v>
@@ -1768,7 +1898,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>8</v>
@@ -1777,56 +1907,56 @@
         <v>9</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="35">
         <v>564</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I2" s="35">
         <v>727</v>
@@ -1902,26 +2032,26 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="35">
         <v>564</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I7" s="35">
         <v>727</v>
@@ -1937,26 +2067,26 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="35">
         <v>564</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I8" s="35">
         <v>727</v>
@@ -1984,16 +2114,16 @@
         <v>564</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I9" s="35">
         <v>727</v>
@@ -2009,26 +2139,26 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="35">
         <v>6</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I10" s="35">
         <v>727</v>
@@ -2096,7 +2226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F58E73-C5FB-450C-88C9-28878FC52990}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2119,27 +2249,27 @@
         <v>9</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="13">
         <v>22</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2155,6 +2285,862 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F7DC9-3B38-4791-AB67-02C307428689}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="35">
+        <v>727</v>
+      </c>
+      <c r="D2" s="35">
+        <v>3</v>
+      </c>
+      <c r="E2" s="35">
+        <v>100</v>
+      </c>
+      <c r="F2" s="35">
+        <v>1800000</v>
+      </c>
+      <c r="G2" s="9">
+        <v>10</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="35">
+        <v>1</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="35">
+        <v>5478</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="35">
+        <v>5478</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="35">
+        <v>5478</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="35">
+        <v>727</v>
+      </c>
+      <c r="D5" s="35">
+        <v>3</v>
+      </c>
+      <c r="E5" s="35">
+        <v>100</v>
+      </c>
+      <c r="F5" s="35">
+        <v>1050000</v>
+      </c>
+      <c r="G5" s="35">
+        <v>10</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="35">
+        <v>1</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="35">
+        <v>727</v>
+      </c>
+      <c r="D6" s="35">
+        <v>3</v>
+      </c>
+      <c r="E6" s="35">
+        <v>100</v>
+      </c>
+      <c r="F6" s="35">
+        <v>1050000</v>
+      </c>
+      <c r="G6" s="35">
+        <v>10</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="35">
+        <v>1</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" hidden="1"/>
+    <row r="8" spans="1:16">
+      <c r="A8" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="35">
+        <v>727</v>
+      </c>
+      <c r="D8" s="35">
+        <v>11</v>
+      </c>
+      <c r="E8" s="35">
+        <v>163</v>
+      </c>
+      <c r="F8" s="35">
+        <v>1800000</v>
+      </c>
+      <c r="G8" s="9">
+        <v>10</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="35">
+        <v>1</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="35">
+        <v>5478</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="O8" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="P8" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="35">
+        <v>727</v>
+      </c>
+      <c r="D9" s="35">
+        <v>11</v>
+      </c>
+      <c r="E9" s="35">
+        <v>163</v>
+      </c>
+      <c r="F9" s="35">
+        <v>1800000</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="35">
+        <v>1</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="35">
+        <v>727</v>
+      </c>
+      <c r="D10" s="35">
+        <v>3</v>
+      </c>
+      <c r="E10" s="35">
+        <v>100</v>
+      </c>
+      <c r="F10" s="35">
+        <v>1050000</v>
+      </c>
+      <c r="G10" s="35">
+        <v>10</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="35">
+        <v>1</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE5A878-7111-4344-80A3-C6CA4D4AA300}">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="35">
+        <v>727</v>
+      </c>
+      <c r="D2" s="35">
+        <v>11</v>
+      </c>
+      <c r="E2" s="35">
+        <v>163</v>
+      </c>
+      <c r="F2" s="35">
+        <v>1800000</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="35">
+        <v>1</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="35">
+        <v>11</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="35">
+        <v>727</v>
+      </c>
+      <c r="D3" s="35">
+        <v>11</v>
+      </c>
+      <c r="E3" s="35">
+        <v>163</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1800000</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="35">
+        <v>1</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="35">
+        <v>11</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="35">
+        <v>727</v>
+      </c>
+      <c r="D4" s="35">
+        <v>11</v>
+      </c>
+      <c r="E4" s="35">
+        <v>163</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1800000</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="35">
+        <v>1</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="35">
+        <v>11</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="35">
+        <v>727</v>
+      </c>
+      <c r="D5" s="35">
+        <v>11</v>
+      </c>
+      <c r="E5" s="35">
+        <v>163</v>
+      </c>
+      <c r="F5" s="35">
+        <v>1800000</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="35">
+        <v>1</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="35">
+        <v>11</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="35">
+        <v>727</v>
+      </c>
+      <c r="D6" s="35">
+        <v>11</v>
+      </c>
+      <c r="E6" s="35">
+        <v>163</v>
+      </c>
+      <c r="F6" s="35">
+        <v>1800000</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="35">
+        <v>1</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="35">
+        <v>11</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E62FF3-AF15-43EB-B66D-931284C02F7A}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF805F5-B910-4A83-AB71-8378FC21723A}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
@@ -2170,61 +3156,61 @@
   <sheetData>
     <row r="1" spans="1:31" s="21" customFormat="1">
       <c r="A1" s="19" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="T1" s="21" t="s">
         <v>10</v>
@@ -2233,34 +3219,34 @@
         <v>43</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="Y1" s="21" t="s">
         <v>15</v>
       </c>
       <c r="Z1" s="59" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="23" customFormat="1">
@@ -2268,10 +3254,10 @@
         <v>668484</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -2292,7 +3278,7 @@
         <v>10000</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
@@ -2304,22 +3290,22 @@
         <v>1</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="R2" s="31">
         <v>1</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="T2" s="29">
         <v>1</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="V2" s="56"/>
       <c r="W2" s="56"/>
@@ -2330,10 +3316,10 @@
         <v>671118</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
@@ -2354,7 +3340,7 @@
         <v>10000</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
@@ -2366,22 +3352,22 @@
         <v>1</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="R3" s="31">
         <v>1</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="T3" s="29">
         <v>1</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="V3" s="56"/>
       <c r="W3" s="56"/>
@@ -2392,10 +3378,10 @@
         <v>670424</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="54"/>
@@ -2416,7 +3402,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
@@ -2428,22 +3414,22 @@
         <v>1</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="R4" s="31">
         <v>1</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="T4" s="29">
         <v>1</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="V4" s="56"/>
       <c r="W4" s="56"/>
@@ -2451,10 +3437,10 @@
     </row>
     <row r="5" spans="1:31" s="23" customFormat="1">
       <c r="A5" s="22" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -2478,22 +3464,22 @@
         <v>1</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="R5" s="31">
         <v>1</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="T5" s="29">
         <v>1</v>
       </c>
       <c r="U5" s="23" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="V5" s="56"/>
       <c r="W5" s="56"/>
@@ -2501,13 +3487,13 @@
     </row>
     <row r="6" spans="1:31" s="23" customFormat="1">
       <c r="A6" s="58" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
@@ -2528,7 +3514,7 @@
         <v>10000</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="M6" s="9">
         <v>1</v>
@@ -2540,22 +3526,22 @@
         <v>1</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="R6" s="31">
         <v>1</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="T6" s="29">
         <v>1</v>
       </c>
       <c r="U6" s="23" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="V6" s="56">
         <v>7</v>
@@ -2569,13 +3555,13 @@
     </row>
     <row r="7" spans="1:31" s="23" customFormat="1">
       <c r="A7" s="58" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
@@ -2596,7 +3582,7 @@
         <v>10000</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="M7" s="9">
         <v>1</v>
@@ -2608,22 +3594,22 @@
         <v>1</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="R7" s="31">
         <v>1</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="T7" s="29">
         <v>1</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="V7" s="56">
         <v>7</v>
@@ -2637,13 +3623,13 @@
     </row>
     <row r="8" spans="1:31" s="23" customFormat="1">
       <c r="A8" s="58" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
@@ -2664,7 +3650,7 @@
         <v>10000</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="M8" s="9">
         <v>1</v>
@@ -2676,22 +3662,22 @@
         <v>1</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="R8" s="31">
         <v>1</v>
       </c>
       <c r="S8" s="30" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="T8" s="29">
         <v>1</v>
       </c>
       <c r="U8" s="23" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="V8" s="56">
         <v>7</v>
@@ -2705,13 +3691,13 @@
     </row>
     <row r="9" spans="1:31" s="23" customFormat="1">
       <c r="A9" s="58" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -2732,7 +3718,7 @@
         <v>10000</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="M9" s="9">
         <v>1</v>
@@ -2744,22 +3730,22 @@
         <v>1</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="R9" s="31">
         <v>1</v>
       </c>
       <c r="S9" s="30" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="T9" s="29">
         <v>1</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="V9" s="56">
         <v>7</v>
@@ -2794,13 +3780,13 @@
     </row>
     <row r="10" spans="1:31" s="23" customFormat="1">
       <c r="A10" s="58" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -2821,7 +3807,7 @@
         <v>10000</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="M10" s="9">
         <v>1</v>
@@ -2833,22 +3819,22 @@
         <v>1</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="R10" s="31">
         <v>1</v>
       </c>
       <c r="S10" s="30" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="T10" s="29">
         <v>1</v>
       </c>
       <c r="U10" s="23" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="V10" s="56">
         <v>7</v>
@@ -2940,7 +3926,119 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AA0F00-69E4-4980-8175-E4CCEFCDB70C}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="12">
+        <v>964142</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2211</v>
+      </c>
+      <c r="D2" s="13">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="13">
+        <v>22</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13">
+        <v>1</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="13">
+        <v>727</v>
+      </c>
+      <c r="M2" s="13">
+        <v>221</v>
+      </c>
+      <c r="N2" s="13">
+        <v>100000</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC633B65-17A1-4F62-89B2-13E8560DCF17}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -2956,63 +4054,63 @@
   <sheetData>
     <row r="1" spans="1:17" s="21" customFormat="1">
       <c r="A1" s="19" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="23" customFormat="1">
       <c r="A2" s="22" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="9">
@@ -3028,22 +4126,22 @@
         <v>1000</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="J2" s="56" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="K2" s="56">
         <v>200</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="N2" s="56">
         <v>5</v>
@@ -3060,10 +4158,10 @@
     </row>
     <row r="3" spans="1:17" s="23" customFormat="1">
       <c r="A3" s="22" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="9">
@@ -3079,22 +4177,22 @@
         <v>1000</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="J3" s="56" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="K3" s="56">
         <v>200</v>
       </c>
       <c r="L3" s="57" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="M3" s="57" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="N3" s="56">
         <v>5</v>
@@ -3127,118 +4225,6 @@
       <c r="O4" s="56"/>
       <c r="P4" s="56"/>
       <c r="Q4" s="56"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AA0F00-69E4-4980-8175-E4CCEFCDB70C}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="12">
-        <v>964142</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="13">
-        <v>2211</v>
-      </c>
-      <c r="D2" s="13">
-        <v>20</v>
-      </c>
-      <c r="E2" s="13">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="13">
-        <v>22</v>
-      </c>
-      <c r="H2" s="13">
-        <v>2</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2</v>
-      </c>
-      <c r="J2" s="13">
-        <v>1</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="13">
-        <v>727</v>
-      </c>
-      <c r="M2" s="13">
-        <v>221</v>
-      </c>
-      <c r="N2" s="13">
-        <v>100000</v>
-      </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3514,7 +4500,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15"/>
@@ -3541,7 +4527,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" s="12">
         <v>321</v>
@@ -3555,7 +4541,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>32</v>
@@ -3593,22 +4579,22 @@
         <v>8</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -3619,10 +4605,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="13">
         <v>727</v>
@@ -3651,10 +4637,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="13">
         <v>727</v>
@@ -3723,7 +4709,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15"/>
@@ -3747,10 +4733,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" s="12">
         <v>321</v>
@@ -3764,7 +4750,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>32</v>
